--- a/output/fit_clients/fit_round_346.xlsx
+++ b/output/fit_clients/fit_round_346.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2306591576.178133</v>
+        <v>1532274602.877811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07365904283416826</v>
+        <v>0.109633337471389</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03542625907662663</v>
+        <v>0.02889572233873725</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1153295824.935954</v>
       </c>
     </row>
     <row r="3">
@@ -524,29 +508,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2646246276.711367</v>
+        <v>1779147780.277494</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1846996469915407</v>
+        <v>0.1427212770726289</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03202554024609971</v>
+        <v>0.03191335740140533</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1323123278.509944</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3426462246.680604</v>
+        <v>4973097195.054883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1329050459094812</v>
+        <v>0.1094991113479138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03417181201059481</v>
+        <v>0.03711806466395812</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>125</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1713231096.896621</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3467797759.928959</v>
+        <v>3663859979.14404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08545700540067599</v>
+        <v>0.07523623192115134</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03817981652629414</v>
+        <v>0.04348552831677002</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1733898918.880904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2729149249.626508</v>
+        <v>2367697491.935883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1279361633330632</v>
+        <v>0.09774637642439438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04631541954322565</v>
+        <v>0.05046397386267942</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1364574575.506533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2798725514.481272</v>
+        <v>3026624349.325497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08008517090888051</v>
+        <v>0.07480658994380891</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0479547673427978</v>
+        <v>0.0318538485838091</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>108</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1399362741.52543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3678094393.232536</v>
+        <v>2874971234.834782</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2161430949559153</v>
+        <v>0.1417531126613423</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0260828484752029</v>
+        <v>0.02815308312820658</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>110</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1839047323.461248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1804409400.759238</v>
+        <v>1752183912.649175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1754472209474654</v>
+        <v>0.1314668807561342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02770757772453656</v>
+        <v>0.03571629965208999</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>902204754.1282648</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5342340074.66353</v>
+        <v>4049365854.174719</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1768334266512374</v>
+        <v>0.1602831554957099</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03620240462821735</v>
+        <v>0.04869813377831278</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>146</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2671170163.160491</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3440508434.425539</v>
+        <v>3194047242.503147</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1646905202180527</v>
+        <v>0.1565188332554162</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03255456830755539</v>
+        <v>0.0394411746107147</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>143</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1720254190.865727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2320034495.504391</v>
+        <v>2332803477.311271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1311225939775382</v>
+        <v>0.1222282079376006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04235503358081281</v>
+        <v>0.048051367396344</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>119</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1160017203.522035</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4464362357.594365</v>
+        <v>4797385835.415572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08529037813649752</v>
+        <v>0.08530040135627699</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03019746850288429</v>
+        <v>0.02448898523849491</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>116</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2232181210.144273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3613467806.3285</v>
+        <v>3511224773.68531</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1717454764429887</v>
+        <v>0.1142086968005881</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03546350796879252</v>
+        <v>0.0296776131371605</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1806733893.189064</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1309304521.139236</v>
+        <v>1832695830.9886</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09571417731274888</v>
+        <v>0.08660421602043077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04526055158312235</v>
+        <v>0.03656509817412498</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>654652302.8500655</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1964901802.925479</v>
+        <v>1881044856.847679</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1010619383118527</v>
+        <v>0.1016695006008154</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04160133133254061</v>
+        <v>0.03567717373176707</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>69</v>
-      </c>
-      <c r="J16" t="n">
-        <v>982450980.0940994</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5061822458.94474</v>
+        <v>4567502054.362692</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1648728903475828</v>
+        <v>0.1263766206967766</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03624163736282755</v>
+        <v>0.04745180493056444</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>102</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2530911211.605359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2460736106.938735</v>
+        <v>3406991572.546433</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1360677658031448</v>
+        <v>0.1719655684424343</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02292967948972486</v>
+        <v>0.03283887101694818</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>113</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1230368122.836</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>978087970.8911928</v>
+        <v>1221098610.953989</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1440918147666409</v>
+        <v>0.1710849115415936</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02142745694358198</v>
+        <v>0.02640706392297219</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>489044009.3486899</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1725880028.284657</v>
+        <v>2444861579.616801</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1474518726765295</v>
+        <v>0.1121044677984784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02906759212943901</v>
+        <v>0.02483906380134843</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>862940069.7072389</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2230633800.530962</v>
+        <v>2205197381.595487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07082850081799802</v>
+        <v>0.06171844777421014</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04214119929621915</v>
+        <v>0.0281166290139994</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1115316914.176296</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2557148438.156652</v>
+        <v>3207881403.281818</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1443118774207927</v>
+        <v>0.1162612650222175</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05392861214835883</v>
+        <v>0.05323749595693079</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>96</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1278574307.137064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1545835013.95343</v>
+        <v>1285947301.602883</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1498881917917779</v>
+        <v>0.1718539742599009</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05443573403234288</v>
+        <v>0.04317817238322319</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>772917485.2055075</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3278031086.61205</v>
+        <v>2972602485.927294</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1137782875378515</v>
+        <v>0.09131360984766615</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03387929564025138</v>
+        <v>0.02571287108447977</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1639015559.844193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1135530605.66801</v>
+        <v>1357137135.174404</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1057913614627758</v>
+        <v>0.1105082387866783</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02313951750186233</v>
+        <v>0.02681261516885605</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>567765335.6632016</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1298087413.007091</v>
+        <v>1203249888.877105</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09671599834933405</v>
+        <v>0.08731902487737876</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0348171130872861</v>
+        <v>0.03002238254486293</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>649043751.6024684</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2969758767.985849</v>
+        <v>3167585561.568141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1143966177726122</v>
+        <v>0.1279330068671677</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02106691641491063</v>
+        <v>0.02267501320425169</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1484879445.313337</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3289787358.807361</v>
+        <v>3353435881.676489</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1330441260918609</v>
+        <v>0.1049193311451437</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03987702776030898</v>
+        <v>0.03250564032840748</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1644893715.775748</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3750093882.450278</v>
+        <v>4043037038.746346</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1490472095916058</v>
+        <v>0.1321530716629825</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0328335684204737</v>
+        <v>0.04480983619108322</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>153</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1875046975.365189</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1977861783.186848</v>
+        <v>2038685005.135865</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1367869957763801</v>
+        <v>0.1000855993837031</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02601625778380027</v>
+        <v>0.02862345134015123</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>988930926.5722958</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1303833612.265816</v>
+        <v>1452166351.503916</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1028006891086458</v>
+        <v>0.1047103747376227</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0319939453639768</v>
+        <v>0.04924711144057806</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>651916733.1643689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1210384881.016814</v>
+        <v>1353958755.156664</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08049595446777881</v>
+        <v>0.1075112225012869</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02740065042678564</v>
+        <v>0.02371649854029143</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>605192448.8890903</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2846600198.593361</v>
+        <v>2718541768.836549</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1531052513283216</v>
+        <v>0.1591203709971774</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03800543139831853</v>
+        <v>0.04938109030307936</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>105</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1423300107.98816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1561307227.99027</v>
+        <v>1309743409.579666</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08441405359192272</v>
+        <v>0.1044790700262284</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02475188448767861</v>
+        <v>0.01769837205516469</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>780653559.7789223</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1020057424.437133</v>
+        <v>1123995578.830781</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1006588879106087</v>
+        <v>0.1108579190648337</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04314926708305347</v>
+        <v>0.02770852512494805</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>510028726.396192</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2240945263.384364</v>
+        <v>2131900166.906855</v>
       </c>
       <c r="F36" t="n">
-        <v>0.178625092636143</v>
+        <v>0.1731755842150583</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02551911965494416</v>
+        <v>0.02552794425273179</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1120472674.443251</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1929907033.807668</v>
+        <v>2777202749.744018</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0797497587501413</v>
+        <v>0.08642593895499416</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04007816094820944</v>
+        <v>0.03957345354918203</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>964953534.5461276</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2167236640.292189</v>
+        <v>1669088988.211795</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07879625708633071</v>
+        <v>0.1001838821857416</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03682855205443452</v>
+        <v>0.03644071022295176</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1083618275.158456</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1722148092.958802</v>
+        <v>2000787402.816092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1776284508877534</v>
+        <v>0.1513467827183973</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02463001820916599</v>
+        <v>0.02550903773402027</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>861074083.1887379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1502813801.22393</v>
+        <v>1638771199.185992</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1421269433388002</v>
+        <v>0.1128828547739955</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04419660056817321</v>
+        <v>0.05864921978061125</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>751406866.1166707</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2092960688.35615</v>
+        <v>2133962756.918301</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1458041735660781</v>
+        <v>0.130014840720229</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02851587659417964</v>
+        <v>0.0383227883539784</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1046480409.289042</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2811820393.456344</v>
+        <v>2897280588.49467</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1186038559640856</v>
+        <v>0.1112296914981845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03912534322381397</v>
+        <v>0.03880886232727714</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1405910144.217032</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2010414140.745051</v>
+        <v>2404267928.738889</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1377506011575542</v>
+        <v>0.2040525873375408</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02201432282298491</v>
+        <v>0.02136687584761784</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>124</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1005207168.261765</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1937607424.502197</v>
+        <v>2334410061.863722</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06322014188636005</v>
+        <v>0.09872604362001564</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02375570193796027</v>
+        <v>0.03707496001367431</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>968803806.1427894</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2279217265.946043</v>
+        <v>1928443957.287887</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1450993308637323</v>
+        <v>0.1736657910705791</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05235211011263807</v>
+        <v>0.05363871384278901</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1139608651.976278</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4603179493.481222</v>
+        <v>5254878185.780564</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1723907567915361</v>
+        <v>0.1526381914004282</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05304297859113859</v>
+        <v>0.04554672617004335</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>123</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2301589750.82719</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4744636389.409809</v>
+        <v>4095890464.061742</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1718645912923472</v>
+        <v>0.1374436581149029</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0443378751066771</v>
+        <v>0.0527578508214507</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>93</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2372318236.07826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2929299398.845189</v>
+        <v>3745315237.637181</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09000498671262097</v>
+        <v>0.1076228726210637</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03626896679562631</v>
+        <v>0.0389318919647868</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1464649796.030523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668387672.690115</v>
+        <v>1862959119.006576</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148595930871893</v>
+        <v>0.156548517670611</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03939490664337181</v>
+        <v>0.03302000393353342</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>834193842.2089739</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4130720918.326891</v>
+        <v>3112409977.913047</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1408194986871487</v>
+        <v>0.1487028319999837</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03541063055933467</v>
+        <v>0.04681261302006672</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>119</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2065360438.559443</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1543967791.609162</v>
+        <v>1067144626.627809</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1663055333801778</v>
+        <v>0.1668668159494582</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04661185458180693</v>
+        <v>0.05166778358894899</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>771983891.6080655</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4787875231.248997</v>
+        <v>4517861856.548106</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1356876564554398</v>
+        <v>0.09047580483077454</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05922336476672391</v>
+        <v>0.04954377580871138</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>143</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2393937625.738266</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3257871280.053934</v>
+        <v>2868486214.110662</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1517793567546033</v>
+        <v>0.1533715010673967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02622659267458444</v>
+        <v>0.02536460744620495</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1628935654.682594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4818909518.931261</v>
+        <v>3557393988.779461</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1446545685579994</v>
+        <v>0.126992661942349</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03510847492210369</v>
+        <v>0.04995143760560063</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2409454887.861249</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4093450302.406702</v>
+        <v>4673309771.437831</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1972209216169392</v>
+        <v>0.181359239794409</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02356253425721962</v>
+        <v>0.02741144604747072</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2046725130.231574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1539086413.378518</v>
+        <v>1758680353.717179</v>
       </c>
       <c r="F56" t="n">
-        <v>0.102925193569735</v>
+        <v>0.1339968005782444</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0444973743058901</v>
+        <v>0.05334793589451786</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>769543243.1349607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3175040402.730352</v>
+        <v>3095204205.486755</v>
       </c>
       <c r="F57" t="n">
-        <v>0.172154889011513</v>
+        <v>0.1634680012636062</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01788496332253263</v>
+        <v>0.01986599238140293</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1587520220.473866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1207174401.427758</v>
+        <v>1851270615.798513</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1346419293463899</v>
+        <v>0.1438464516005768</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02753016187778124</v>
+        <v>0.02565619339022723</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>603587258.5797834</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4417354240.484719</v>
+        <v>4227007235.445704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1024465088433383</v>
+        <v>0.08036752741234453</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04393122522812907</v>
+        <v>0.03972900887493717</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>94</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2208677076.071529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3008292004.69486</v>
+        <v>3211606244.975869</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1986371355190363</v>
+        <v>0.1886544069441952</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02721472762833371</v>
+        <v>0.02543203951056878</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1504146073.575257</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2465334531.204692</v>
+        <v>3205616646.676522</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1242947890546074</v>
+        <v>0.1425514288887057</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03016775588471202</v>
+        <v>0.02019696473349175</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>119</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1232667296.499312</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2083920056.406023</v>
+        <v>1336799326.706259</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1454646868504478</v>
+        <v>0.1916474670373673</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03072090681143038</v>
+        <v>0.03138519961492891</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1041960098.890599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5028945241.801118</v>
+        <v>5050209873.905816</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07202167353166157</v>
+        <v>0.09305505879655221</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03108573375724962</v>
+        <v>0.0359273404896222</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2514472637.405989</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5320038163.693335</v>
+        <v>3557817760.325789</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1777439688795264</v>
+        <v>0.1546375794063342</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03495028631113019</v>
+        <v>0.03553391081544109</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>108</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2660019210.565253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4442654476.864392</v>
+        <v>5222997383.247549</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1353235937058607</v>
+        <v>0.1157040510406258</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03124304701006696</v>
+        <v>0.03053188355164213</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>124</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2221327230.607485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4515178516.367256</v>
+        <v>5437923802.050559</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1572868830745728</v>
+        <v>0.1384004023219702</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04927312299958021</v>
+        <v>0.05061288234126283</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2257589259.358939</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2819446773.152535</v>
+        <v>2777887693.474058</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09959141445855034</v>
+        <v>0.08685092204967665</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03154801869931814</v>
+        <v>0.03946672950077619</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>111</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1409723420.102291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4354308151.709167</v>
+        <v>6072983436.812804</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1508859473398834</v>
+        <v>0.1302317830875225</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03911027608562856</v>
+        <v>0.03226374058833364</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2177154093.121421</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2129610173.117957</v>
+        <v>1626576046.241362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1202751599421469</v>
+        <v>0.1735559305317101</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03809047406995756</v>
+        <v>0.05246624304710574</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1064805108.281058</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2574930818.676762</v>
+        <v>2504747772.934593</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07627977927010948</v>
+        <v>0.06924964664177762</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04370853285140848</v>
+        <v>0.04613507811089788</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>99</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1287465358.682755</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4469753128.824933</v>
+        <v>4618659826.397147</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1429476217339431</v>
+        <v>0.1560779206756766</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02598936255455079</v>
+        <v>0.03255412216162691</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>126</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2234876630.515678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2114423678.293271</v>
+        <v>1718345988.972696</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09084907045879108</v>
+        <v>0.09344026124885615</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0441838714781367</v>
+        <v>0.04368951878916918</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1057211767.05504</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2545512928.264777</v>
+        <v>2368370479.05593</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08470177470023503</v>
+        <v>0.06785404665740893</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05164353752541347</v>
+        <v>0.04032736129244264</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>132</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1272756501.74762</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2547886280.979095</v>
+        <v>3138762530.715172</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1787999400412087</v>
+        <v>0.1820406687812745</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02870442084106803</v>
+        <v>0.02760741161845559</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>118</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1273943245.005135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1859294990.721987</v>
+        <v>2038673618.002461</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1100367175884763</v>
+        <v>0.1380227347922548</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02751938754272426</v>
+        <v>0.02795419360890573</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>929647472.808238</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3244260931.460757</v>
+        <v>5218068329.810658</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07536357202927065</v>
+        <v>0.1090728185913119</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02825932346798051</v>
+        <v>0.03274718938445591</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1622130418.737789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2201670356.38989</v>
+        <v>1593206018.959418</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1708532162004512</v>
+        <v>0.1556505342866928</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03180816250654648</v>
+        <v>0.03050359555883501</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1100835269.471788</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4074887807.126433</v>
+        <v>4637466128.131653</v>
       </c>
       <c r="F78" t="n">
-        <v>0.116620988133084</v>
+        <v>0.1064383524801244</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04160522243302013</v>
+        <v>0.04557351451621234</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>120</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2037443863.953235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1300619855.64389</v>
+        <v>1839692628.719543</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1735111443555863</v>
+        <v>0.1549810118001846</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02966894111230039</v>
+        <v>0.03311114557440497</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>650309927.1320862</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5191748882.528322</v>
+        <v>5209097666.566235</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09256381654360371</v>
+        <v>0.09351439272932856</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02773888449958679</v>
+        <v>0.03238027396920053</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2595874500.007518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4218501144.938717</v>
+        <v>4003246003.765504</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1250312514942167</v>
+        <v>0.1104207691228875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02616060377818866</v>
+        <v>0.02002063531021444</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2109250543.782874</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4172842788.214882</v>
+        <v>3792183619.797521</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1428368558603714</v>
+        <v>0.2043487634533969</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0220165268854923</v>
+        <v>0.02765865065794229</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>121</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2086421424.222881</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1901554520.662857</v>
+        <v>1730464625.972068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1053186626934472</v>
+        <v>0.1273213183494282</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04041978114039851</v>
+        <v>0.02756124645266693</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>950777233.4168965</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1833676988.418221</v>
+        <v>1904694220.835288</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08237608430663967</v>
+        <v>0.0917787838694628</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04327114856957427</v>
+        <v>0.04112728431312394</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>916838523.5888478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2828397110.57498</v>
+        <v>3325675418.914301</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1825068038603992</v>
+        <v>0.1575411511364876</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0475045723507784</v>
+        <v>0.04220318620335828</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>130</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1414198596.501967</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2206964592.534679</v>
+        <v>2077998917.803592</v>
       </c>
       <c r="F86" t="n">
-        <v>0.131505959103008</v>
+        <v>0.1657944932223657</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01964500123461109</v>
+        <v>0.01711249944233904</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1103482352.666316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1080169676.765164</v>
+        <v>1343051188.117616</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1381580705917272</v>
+        <v>0.1599427096029983</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02673964036727922</v>
+        <v>0.03939771691362684</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>540084863.2813365</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2980608006.10359</v>
+        <v>2783172672.1511</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1601635155672356</v>
+        <v>0.1644149911063868</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02454206835208303</v>
+        <v>0.03366597396864782</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>137</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1490304031.601006</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2855787337.029397</v>
+        <v>3127535114.353904</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1435945624790657</v>
+        <v>0.1590089937778027</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03873893936610764</v>
+        <v>0.0412456142478759</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>118</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1427893717.197003</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1543262589.289111</v>
+        <v>1415847919.327363</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09492494744971035</v>
+        <v>0.1132713394737191</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05213700295483421</v>
+        <v>0.0532331923769762</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>771631281.3319538</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1451550075.700975</v>
+        <v>1657706461.186609</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862061921173423</v>
+        <v>0.1481987131824688</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04246011928992164</v>
+        <v>0.04477198317229936</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>725775083.2541238</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2233042070.941082</v>
+        <v>1892553102.465799</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1088972588548496</v>
+        <v>0.1081902680267242</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04496098164126696</v>
+        <v>0.0471175179015194</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1116520999.253345</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3395694049.206914</v>
+        <v>3090223189.3117</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1052595560749797</v>
+        <v>0.1188649449550386</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05287202139253434</v>
+        <v>0.04538060564928664</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1697847064.320505</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2093599249.081965</v>
+        <v>2515829918.52438</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1562112596363892</v>
+        <v>0.1509553152785063</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02758424469529067</v>
+        <v>0.03893506336990971</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1046799635.093906</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3135985457.688253</v>
+        <v>2356453647.205913</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1248417746951233</v>
+        <v>0.1108343161518746</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03584949190579022</v>
+        <v>0.04436418947516793</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1567992718.683441</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2286726436.31273</v>
+        <v>1878812647.28958</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08732703060921522</v>
+        <v>0.09322919500302125</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04038798675056966</v>
+        <v>0.02907580273685526</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1143363174.55027</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5263711502.447595</v>
+        <v>5204761238.365845</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1676293713141401</v>
+        <v>0.1731281348802845</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02227522671405776</v>
+        <v>0.02364206999009387</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2631855909.249034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3469121123.949053</v>
+        <v>3355278008.023755</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1062097026493908</v>
+        <v>0.09369999009593458</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02008958900735202</v>
+        <v>0.02526920725738763</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>92</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1734560578.481816</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2429901704.877694</v>
+        <v>2921468523.136808</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1368343511571993</v>
+        <v>0.127490021761141</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03195129116487099</v>
+        <v>0.03311821855094537</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1214950797.08095</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3274335880.259625</v>
+        <v>3028648016.740523</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1396574946653586</v>
+        <v>0.1794207526914784</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01822128811136926</v>
+        <v>0.02456149146195899</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1637167952.866957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2408561425.051434</v>
+        <v>3347867133.063868</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1347582231542911</v>
+        <v>0.1362175350732857</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03530913220789951</v>
+        <v>0.04750321529284993</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>140</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1204280723.434875</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_346.xlsx
+++ b/output/fit_clients/fit_round_346.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1532274602.877811</v>
+        <v>1914615389.343751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.109633337471389</v>
+        <v>0.09045485873765723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02889572233873725</v>
+        <v>0.03961877531854371</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1779147780.277494</v>
+        <v>2629344280.308082</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1427212770726289</v>
+        <v>0.1688698500883271</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03191335740140533</v>
+        <v>0.0478436784753918</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4973097195.054883</v>
+        <v>3577429721.037608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1094991113479138</v>
+        <v>0.108907280714794</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03711806466395812</v>
+        <v>0.03276150296190131</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3663859979.14404</v>
+        <v>3338962921.116569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07523623192115134</v>
+        <v>0.08032515126607281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04348552831677002</v>
+        <v>0.03594339995798874</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2367697491.935883</v>
+        <v>2702273298.475596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09774637642439438</v>
+        <v>0.09973651211138257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05046397386267942</v>
+        <v>0.04087552536588505</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3026624349.325497</v>
+        <v>2736953050.895884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07480658994380891</v>
+        <v>0.0842912619615349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0318538485838091</v>
+        <v>0.04048166244975409</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2874971234.834782</v>
+        <v>3026703129.294536</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1417531126613423</v>
+        <v>0.1695395774125451</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02815308312820658</v>
+        <v>0.03060017455501084</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1752183912.649175</v>
+        <v>2208837828.110766</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1314668807561342</v>
+        <v>0.1730094282589072</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03571629965208999</v>
+        <v>0.02867862824047609</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4049365854.174719</v>
+        <v>4772695853.862971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1602831554957099</v>
+        <v>0.1471820861140765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04869813377831278</v>
+        <v>0.04171514975794954</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3194047242.503147</v>
+        <v>4178430123.095142</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1565188332554162</v>
+        <v>0.1651952715529138</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0394411746107147</v>
+        <v>0.03155835694369221</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2332803477.311271</v>
+        <v>2015806820.284035</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1222282079376006</v>
+        <v>0.1846005038656352</v>
       </c>
       <c r="G12" t="n">
-        <v>0.048051367396344</v>
+        <v>0.03839821080124911</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4797385835.415572</v>
+        <v>3783363384.725554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08530040135627699</v>
+        <v>0.06947264849593439</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02448898523849491</v>
+        <v>0.02961390185372749</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3511224773.68531</v>
+        <v>3615404138.30944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1142086968005881</v>
+        <v>0.1759127028454051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0296776131371605</v>
+        <v>0.0400909936886061</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1832695830.9886</v>
+        <v>1755370903.358878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08660421602043077</v>
+        <v>0.07027020944372842</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03656509817412498</v>
+        <v>0.03672605505386032</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1881044856.847679</v>
+        <v>1949405678.471165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1016695006008154</v>
+        <v>0.09002528579480196</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03567717373176707</v>
+        <v>0.04183650342338439</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4567502054.362692</v>
+        <v>4624730564.185767</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1263766206967766</v>
+        <v>0.1410513822481713</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04745180493056444</v>
+        <v>0.03503198642793588</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3406991572.546433</v>
+        <v>2700162028.500206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1719655684424343</v>
+        <v>0.1631437470082193</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03283887101694818</v>
+        <v>0.03126212514685511</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1221098610.953989</v>
+        <v>831137790.0413669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1710849115415936</v>
+        <v>0.1843967587730846</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02640706392297219</v>
+        <v>0.01868316159988717</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2444861579.616801</v>
+        <v>2691786309.617617</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1121044677984784</v>
+        <v>0.1424486538244377</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02483906380134843</v>
+        <v>0.02083529338585447</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2205197381.595487</v>
+        <v>2078973425.290847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06171844777421014</v>
+        <v>0.08502813202492149</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0281166290139994</v>
+        <v>0.03964359586343958</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3207881403.281818</v>
+        <v>3539199050.873541</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1162612650222175</v>
+        <v>0.1305563400596527</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05323749595693079</v>
+        <v>0.03927418635431671</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1285947301.602883</v>
+        <v>1166045160.834918</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1718539742599009</v>
+        <v>0.1230979578238184</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04317817238322319</v>
+        <v>0.0500768111300952</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2972602485.927294</v>
+        <v>4100856029.733237</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09131360984766615</v>
+        <v>0.09266582585179349</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02571287108447977</v>
+        <v>0.03334814333046319</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1357137135.174404</v>
+        <v>1015287996.835721</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1105082387866783</v>
+        <v>0.09721885526890872</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02681261516885605</v>
+        <v>0.02817486381581582</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1203249888.877105</v>
+        <v>987746340.8109456</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08731902487737876</v>
+        <v>0.08544741220830396</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03002238254486293</v>
+        <v>0.03216337779395113</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3167585561.568141</v>
+        <v>3890450704.912777</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1279330068671677</v>
+        <v>0.10292752055463</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02267501320425169</v>
+        <v>0.02539873974803863</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3353435881.676489</v>
+        <v>3108535885.449531</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1049193311451437</v>
+        <v>0.1232193546114356</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03250564032840748</v>
+        <v>0.03439061633144536</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4043037038.746346</v>
+        <v>5648369809.189234</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1321530716629825</v>
+        <v>0.1123474149364293</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04480983619108322</v>
+        <v>0.03562080735621593</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2038685005.135865</v>
+        <v>1960709761.733899</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1000855993837031</v>
+        <v>0.09146606164717366</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02862345134015123</v>
+        <v>0.02452883827276917</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1452166351.503916</v>
+        <v>1062833493.776852</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1047103747376227</v>
+        <v>0.0960017425635061</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04924711144057806</v>
+        <v>0.04735199263461772</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1353958755.156664</v>
+        <v>1203278594.40289</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1075112225012869</v>
+        <v>0.1147951762294801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02371649854029143</v>
+        <v>0.0277804059326459</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2718541768.836549</v>
+        <v>2503961171.05519</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1591203709971774</v>
+        <v>0.1755728688473142</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04938109030307936</v>
+        <v>0.05230290797381526</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1309743409.579666</v>
+        <v>1384701695.628125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1044790700262284</v>
+        <v>0.09027959438791781</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01769837205516469</v>
+        <v>0.02012061045905011</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1123995578.830781</v>
+        <v>825923390.0817841</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108579190648337</v>
+        <v>0.07575642200429289</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02770852512494805</v>
+        <v>0.03526319960816331</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2131900166.906855</v>
+        <v>2907359905.601922</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1731755842150583</v>
+        <v>0.1796901745487791</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02552794425273179</v>
+        <v>0.02068117843956365</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2777202749.744018</v>
+        <v>2428952406.299437</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08642593895499416</v>
+        <v>0.09744978860145584</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03957345354918203</v>
+        <v>0.03103597525585858</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1669088988.211795</v>
+        <v>1406277928.037323</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1001838821857416</v>
+        <v>0.1205839542234261</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03644071022295176</v>
+        <v>0.02971587289318598</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2000787402.816092</v>
+        <v>1922874461.029891</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1513467827183973</v>
+        <v>0.1193502608259457</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02550903773402027</v>
+        <v>0.02629577044157874</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1638771199.185992</v>
+        <v>1807788830.166476</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1128828547739955</v>
+        <v>0.1102776742928553</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05864921978061125</v>
+        <v>0.0447465890767636</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2133962756.918301</v>
+        <v>2643746398.779319</v>
       </c>
       <c r="F41" t="n">
-        <v>0.130014840720229</v>
+        <v>0.164816132367464</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0383227883539784</v>
+        <v>0.0320400235240032</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2897280588.49467</v>
+        <v>3014112800.306249</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1112296914981845</v>
+        <v>0.09749378337720331</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03880886232727714</v>
+        <v>0.03157014851993022</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2404267928.738889</v>
+        <v>2303253139.76986</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2040525873375408</v>
+        <v>0.1678938138408186</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02136687584761784</v>
+        <v>0.0227335369682359</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2334410061.863722</v>
+        <v>2233467097.153805</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09872604362001564</v>
+        <v>0.07816384046609363</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03707496001367431</v>
+        <v>0.03032336099915649</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1928443957.287887</v>
+        <v>2491883242.631747</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1736657910705791</v>
+        <v>0.1919781968083162</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05363871384278901</v>
+        <v>0.04520404205926938</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5254878185.780564</v>
+        <v>4343023475.003086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1526381914004282</v>
+        <v>0.1643490516346962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04554672617004335</v>
+        <v>0.04628104088387267</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4095890464.061742</v>
+        <v>3241822149.833572</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1374436581149029</v>
+        <v>0.1228978352363961</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0527578508214507</v>
+        <v>0.05084091854888375</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3745315237.637181</v>
+        <v>4227069576.973713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1076228726210637</v>
+        <v>0.110343274217059</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0389318919647868</v>
+        <v>0.03563958045632051</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1862959119.006576</v>
+        <v>1499331146.742865</v>
       </c>
       <c r="F49" t="n">
-        <v>0.156548517670611</v>
+        <v>0.13841474859974</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03302000393353342</v>
+        <v>0.03708929734952959</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3112409977.913047</v>
+        <v>3185160749.551045</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1487028319999837</v>
+        <v>0.1583833963383532</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04681261302006672</v>
+        <v>0.04872631562257217</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1067144626.627809</v>
+        <v>1002105775.420766</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1668668159494582</v>
+        <v>0.1402688010948991</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05166778358894899</v>
+        <v>0.04770854874490948</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4517861856.548106</v>
+        <v>3630062269.414709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09047580483077454</v>
+        <v>0.09465789990170766</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04954377580871138</v>
+        <v>0.05079489733644976</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2868486214.110662</v>
+        <v>3503452705.445155</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1533715010673967</v>
+        <v>0.1391186814550795</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02536460744620495</v>
+        <v>0.03048797387085736</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3557393988.779461</v>
+        <v>4742761532.080518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.126992661942349</v>
+        <v>0.1547387507808063</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04995143760560063</v>
+        <v>0.05021472392784693</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4673309771.437831</v>
+        <v>3281563797.561616</v>
       </c>
       <c r="F55" t="n">
-        <v>0.181359239794409</v>
+        <v>0.143829578395078</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02741144604747072</v>
+        <v>0.02328670741132024</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1758680353.717179</v>
+        <v>1609403874.289186</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1339968005782444</v>
+        <v>0.1429552954624596</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05334793589451786</v>
+        <v>0.04483464914781535</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3095204205.486755</v>
+        <v>2987064463.480096</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1634680012636062</v>
+        <v>0.1693053961549321</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01986599238140293</v>
+        <v>0.01965390255521514</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1851270615.798513</v>
+        <v>1690867842.546133</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1438464516005768</v>
+        <v>0.1484186443922208</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02565619339022723</v>
+        <v>0.03552479120090626</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4227007235.445704</v>
+        <v>3382490158.148757</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08036752741234453</v>
+        <v>0.1236531758385087</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03972900887493717</v>
+        <v>0.03477913582185124</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3211606244.975869</v>
+        <v>3271340124.091759</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1886544069441952</v>
+        <v>0.1604129553192961</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02543203951056878</v>
+        <v>0.02716415095644233</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3205616646.676522</v>
+        <v>2671014777.275777</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1425514288887057</v>
+        <v>0.1573348287140278</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02019696473349175</v>
+        <v>0.02253398057824517</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336799326.706259</v>
+        <v>1735621863.321153</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1916474670373673</v>
+        <v>0.1523725034766606</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03138519961492891</v>
+        <v>0.04722495697443897</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5050209873.905816</v>
+        <v>5372114803.647658</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09305505879655221</v>
+        <v>0.07322459286092874</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0359273404896222</v>
+        <v>0.04292908630154031</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3557817760.325789</v>
+        <v>5462838929.874201</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1546375794063342</v>
+        <v>0.1510019155442263</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03553391081544109</v>
+        <v>0.02907947131224247</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5222997383.247549</v>
+        <v>4286945561.312037</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1157040510406258</v>
+        <v>0.1402023806276885</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03053188355164213</v>
+        <v>0.03019792291899451</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5437923802.050559</v>
+        <v>5101392564.861717</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1384004023219702</v>
+        <v>0.10785555749333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05061288234126283</v>
+        <v>0.03383942616761249</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2777887693.474058</v>
+        <v>2596035983.790639</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08685092204967665</v>
+        <v>0.08138046183745778</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03946672950077619</v>
+        <v>0.04394275332732701</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6072983436.812804</v>
+        <v>4040504277.18308</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1302317830875225</v>
+        <v>0.1216728761388735</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03226374058833364</v>
+        <v>0.03279446837004981</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1626576046.241362</v>
+        <v>1513117646.577086</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1735559305317101</v>
+        <v>0.1702722683135133</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05246624304710574</v>
+        <v>0.05621894348036009</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2504747772.934593</v>
+        <v>3602554777.32865</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06924964664177762</v>
+        <v>0.09000417642949923</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04613507811089788</v>
+        <v>0.04231890578523063</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4618659826.397147</v>
+        <v>3658926633.496316</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1560779206756766</v>
+        <v>0.1565543226939013</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03255412216162691</v>
+        <v>0.02397098518554109</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1718345988.972696</v>
+        <v>1863817372.487508</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09344026124885615</v>
+        <v>0.07596250105663722</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04368951878916918</v>
+        <v>0.03546848316501912</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2368370479.05593</v>
+        <v>3249856977.766484</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06785404665740893</v>
+        <v>0.07746003376830767</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04032736129244264</v>
+        <v>0.03613525988473396</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3138762530.715172</v>
+        <v>3987685975.116417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1820406687812745</v>
+        <v>0.121640575511397</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02760741161845559</v>
+        <v>0.03472731094867304</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2038673618.002461</v>
+        <v>2219640469.222864</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1380227347922548</v>
+        <v>0.1674193492133915</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02795419360890573</v>
+        <v>0.03625775181946975</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5218068329.810658</v>
+        <v>4022281662.786173</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1090728185913119</v>
+        <v>0.07909618736971398</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03274718938445591</v>
+        <v>0.02671348559565407</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1593206018.959418</v>
+        <v>2022371832.474323</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1556505342866928</v>
+        <v>0.1849562840175772</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03050359555883501</v>
+        <v>0.02206418304495819</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4637466128.131653</v>
+        <v>3824011193.748581</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1064383524801244</v>
+        <v>0.08273281165901174</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04557351451621234</v>
+        <v>0.04972235954968553</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1839692628.719543</v>
+        <v>1314890809.38955</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1549810118001846</v>
+        <v>0.115097156865938</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03311114557440497</v>
+        <v>0.0245060273578797</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5209097666.566235</v>
+        <v>4418297510.196931</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09351439272932856</v>
+        <v>0.09016416227018376</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03238027396920053</v>
+        <v>0.02693249857595916</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4003246003.765504</v>
+        <v>4928636602.103289</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1104207691228875</v>
+        <v>0.09558236922633415</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02002063531021444</v>
+        <v>0.0302737961760217</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3792183619.797521</v>
+        <v>5595816347.53264</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2043487634533969</v>
+        <v>0.1591733353511257</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02765865065794229</v>
+        <v>0.02394873423823744</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1730464625.972068</v>
+        <v>2028835699.029163</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1273213183494282</v>
+        <v>0.1572483856743949</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02756124645266693</v>
+        <v>0.0344653476336156</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1904694220.835288</v>
+        <v>2228886695.083042</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0917787838694628</v>
+        <v>0.1132089527669665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04112728431312394</v>
+        <v>0.03702853092290868</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3325675418.914301</v>
+        <v>2226322995.779906</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1575411511364876</v>
+        <v>0.1153989025529522</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04220318620335828</v>
+        <v>0.04737372665541099</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2077998917.803592</v>
+        <v>2759777690.856788</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1657944932223657</v>
+        <v>0.1170403363931219</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01711249944233904</v>
+        <v>0.0214408685674559</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1343051188.117616</v>
+        <v>987137468.0737936</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1599427096029983</v>
+        <v>0.1858195647899518</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03939771691362684</v>
+        <v>0.04095044399945741</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2783172672.1511</v>
+        <v>3074108367.45771</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1644149911063868</v>
+        <v>0.1760609506604056</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03366597396864782</v>
+        <v>0.0258051464167905</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3127535114.353904</v>
+        <v>2523304803.560546</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1590089937778027</v>
+        <v>0.125247713852423</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0412456142478759</v>
+        <v>0.03264380061250169</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1415847919.327363</v>
+        <v>1929861934.285463</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1132713394737191</v>
+        <v>0.1294042194111354</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0532331923769762</v>
+        <v>0.04423849397071247</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1657706461.186609</v>
+        <v>1549825192.229885</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1481987131824688</v>
+        <v>0.1700730940858589</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04477198317229936</v>
+        <v>0.03769694660554742</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1892553102.465799</v>
+        <v>2966459245.604888</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1081902680267242</v>
+        <v>0.100803286184585</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0471175179015194</v>
+        <v>0.02962844731328797</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3090223189.3117</v>
+        <v>4198743775.009159</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1188649449550386</v>
+        <v>0.1116558752811024</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04538060564928664</v>
+        <v>0.0348376486272285</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2515829918.52438</v>
+        <v>2353279558.677174</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1509553152785063</v>
+        <v>0.1194106953700448</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03893506336990971</v>
+        <v>0.04333017530978328</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2356453647.205913</v>
+        <v>2100198429.922732</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1108343161518746</v>
+        <v>0.1031606196008495</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04436418947516793</v>
+        <v>0.04156126138314246</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1878812647.28958</v>
+        <v>2392468123.867361</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09322919500302125</v>
+        <v>0.1319595740369356</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02907580273685526</v>
+        <v>0.03577490827971832</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5204761238.365845</v>
+        <v>4832702820.283581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1731281348802845</v>
+        <v>0.1510254395771854</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02364206999009387</v>
+        <v>0.02620875596350442</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3355278008.023755</v>
+        <v>3895092022.692981</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09369999009593458</v>
+        <v>0.08668341415834052</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02526920725738763</v>
+        <v>0.02280718378447305</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2921468523.136808</v>
+        <v>3127498132.367767</v>
       </c>
       <c r="F99" t="n">
-        <v>0.127490021761141</v>
+        <v>0.1201130147208297</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03311821855094537</v>
+        <v>0.03205445354235998</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3028648016.740523</v>
+        <v>3761083866.866515</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1794207526914784</v>
+        <v>0.133459572451504</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02456149146195899</v>
+        <v>0.02178888110041592</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3347867133.063868</v>
+        <v>2810755954.416561</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1362175350732857</v>
+        <v>0.1576411651963472</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04750321529284993</v>
+        <v>0.05282546227965283</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_346.xlsx
+++ b/output/fit_clients/fit_round_346.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1914615389.343751</v>
+        <v>1858284969.416774</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09045485873765723</v>
+        <v>0.0775958145379068</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03961877531854371</v>
+        <v>0.03668963239429305</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2629344280.308082</v>
+        <v>1995786162.112122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1688698500883271</v>
+        <v>0.1153361274906035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0478436784753918</v>
+        <v>0.04307093126050724</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3577429721.037608</v>
+        <v>3220003004.939524</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108907280714794</v>
+        <v>0.1141700297166618</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03276150296190131</v>
+        <v>0.03822663158085276</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J4" t="n">
+        <v>344</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3338962921.116569</v>
+        <v>2798156772.196986</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08032515126607281</v>
+        <v>0.08056309516228873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03594339995798874</v>
+        <v>0.04169725053053972</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>137</v>
+      </c>
+      <c r="J5" t="n">
+        <v>344</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2702273298.475596</v>
+        <v>2343183446.322475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09973651211138257</v>
+        <v>0.09036982689518382</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04087552536588505</v>
+        <v>0.03586272071973056</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2736953050.895884</v>
+        <v>1921895184.853264</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0842912619615349</v>
+        <v>0.09588497330055064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04048166244975409</v>
+        <v>0.0473755584301891</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3026703129.294536</v>
+        <v>3081214517.716985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1695395774125451</v>
+        <v>0.159438211829838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03060017455501084</v>
+        <v>0.02826447048120708</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>90</v>
+      </c>
+      <c r="J8" t="n">
+        <v>343</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2208837828.110766</v>
+        <v>1769402474.782702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1730094282589072</v>
+        <v>0.1605707147021917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02867862824047609</v>
+        <v>0.02766522726815187</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4772695853.862971</v>
+        <v>4835567645.218403</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1471820861140765</v>
+        <v>0.1782884353426182</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04171514975794954</v>
+        <v>0.04156548463335821</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>293</v>
+      </c>
+      <c r="J10" t="n">
+        <v>346</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +816,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4178430123.095142</v>
+        <v>3816986844.623406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1651952715529138</v>
+        <v>0.1909549220302416</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03155835694369221</v>
+        <v>0.04785600136314212</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>141</v>
+      </c>
+      <c r="J11" t="n">
+        <v>346</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2015806820.284035</v>
+        <v>2177409685.91116</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1846005038656352</v>
+        <v>0.1907038383313467</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03839821080124911</v>
+        <v>0.04407775345178779</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3783363384.725554</v>
+        <v>5172893025.065488</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06947264849593439</v>
+        <v>0.07549761162644664</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02961390185372749</v>
+        <v>0.03106298621281935</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>179</v>
+      </c>
+      <c r="J13" t="n">
+        <v>346</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +921,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3615404138.30944</v>
+        <v>3515818774.710714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1759127028454051</v>
+        <v>0.1848762619666584</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0400909936886061</v>
+        <v>0.03872302956931992</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>70</v>
+      </c>
+      <c r="J14" t="n">
+        <v>346</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82.07671045415961</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1755370903.358878</v>
+        <v>1223108134.921429</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07027020944372842</v>
+        <v>0.07759535907374898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03672605505386032</v>
+        <v>0.04566566091632578</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1949405678.471165</v>
+        <v>2329999695.406626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09002528579480196</v>
+        <v>0.108092003902835</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04183650342338439</v>
+        <v>0.04279423918386571</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1028,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4624730564.185767</v>
+        <v>4519118165.807399</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1410513822481713</v>
+        <v>0.1451399248314433</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03503198642793588</v>
+        <v>0.03302859318655357</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>163</v>
+      </c>
+      <c r="J17" t="n">
+        <v>346</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2700162028.500206</v>
+        <v>3411444929.579266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1631437470082193</v>
+        <v>0.1366399123259762</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03126212514685511</v>
+        <v>0.02457669211862815</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>346</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>831137790.0413669</v>
+        <v>1222280838.985752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1843967587730846</v>
+        <v>0.1660168604426494</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01868316159988717</v>
+        <v>0.02242499776702354</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2691786309.617617</v>
+        <v>1831532593.435956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1424486538244377</v>
+        <v>0.1340510959777141</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02083529338585447</v>
+        <v>0.02212305764498847</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2078973425.290847</v>
+        <v>1762473037.769117</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08502813202492149</v>
+        <v>0.08882367107044543</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03964359586343958</v>
+        <v>0.04410667780559462</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3539199050.873541</v>
+        <v>3259303161.492974</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305563400596527</v>
+        <v>0.1150283750453279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03927418635431671</v>
+        <v>0.04980748867690864</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1232,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1166045160.834918</v>
+        <v>1518824349.917722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1230979578238184</v>
+        <v>0.1587815968281741</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0500768111300952</v>
+        <v>0.05316809245956729</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1267,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4100856029.733237</v>
+        <v>3416844590.340641</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09266582585179349</v>
+        <v>0.1144274122913765</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03334814333046319</v>
+        <v>0.0263181244801895</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>346</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1302,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1015287996.835721</v>
+        <v>903635207.6337224</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09721885526890872</v>
+        <v>0.1014741460257537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02817486381581582</v>
+        <v>0.03061684603997664</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>987746340.8109456</v>
+        <v>1253243105.019077</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08544741220830396</v>
+        <v>0.09922610664029255</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03216337779395113</v>
+        <v>0.02638933245874959</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1372,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3890450704.912777</v>
+        <v>2928927829.779938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.10292752055463</v>
+        <v>0.1110139163627338</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02539873974803863</v>
+        <v>0.01719109541114933</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>144</v>
+      </c>
+      <c r="J27" t="n">
+        <v>345</v>
+      </c>
+      <c r="K27" t="n">
+        <v>44.98510673830769</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1409,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3108535885.449531</v>
+        <v>2603527107.021935</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1232193546114356</v>
+        <v>0.1266328101160231</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03439061633144536</v>
+        <v>0.0335474823919273</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>345</v>
+      </c>
+      <c r="K28" t="n">
+        <v>43.16772224955064</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5648369809.189234</v>
+        <v>5292452512.573797</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1123474149364293</v>
+        <v>0.1422855349732465</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03562080735621593</v>
+        <v>0.03607780323853721</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>311</v>
+      </c>
+      <c r="J29" t="n">
+        <v>345</v>
+      </c>
+      <c r="K29" t="n">
+        <v>65.12645206427861</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1960709761.733899</v>
+        <v>1993510406.413876</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09146606164717366</v>
+        <v>0.09189684063245476</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02452883827276917</v>
+        <v>0.02916076681430374</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1062833493.776852</v>
+        <v>1163661227.85214</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0960017425635061</v>
+        <v>0.1004779075631509</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04735199263461772</v>
+        <v>0.0359441882426545</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1203278594.40289</v>
+        <v>1410471510.699499</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1147951762294801</v>
+        <v>0.1002562279418301</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0277804059326459</v>
+        <v>0.03306387184650925</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2503961171.05519</v>
+        <v>3012651219.553449</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1755728688473142</v>
+        <v>0.1641365522933679</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05230290797381526</v>
+        <v>0.05655161672918247</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1384701695.628125</v>
+        <v>1417757708.730073</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09027959438791781</v>
+        <v>0.0771704384137414</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02012061045905011</v>
+        <v>0.02512490943122348</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>825923390.0817841</v>
+        <v>1186076689.496301</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07575642200429289</v>
+        <v>0.09983937499261837</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03526319960816331</v>
+        <v>0.0344247004978607</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2907359905.601922</v>
+        <v>2986649719.11288</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1796901745487791</v>
+        <v>0.1588797179176641</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02068117843956365</v>
+        <v>0.01769015298430475</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2428952406.299437</v>
+        <v>2386006402.642509</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09744978860145584</v>
+        <v>0.1103557988828093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03103597525585858</v>
+        <v>0.02912387673911186</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1406277928.037323</v>
+        <v>1328656812.189158</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1205839542234261</v>
+        <v>0.1099763760803435</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02971587289318598</v>
+        <v>0.0323409216730384</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1922874461.029891</v>
+        <v>1722734621.553749</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1193502608259457</v>
+        <v>0.118078524115308</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02629577044157874</v>
+        <v>0.02896632692963497</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1807788830.166476</v>
+        <v>1565001512.34091</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1102776742928553</v>
+        <v>0.1100495081310967</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0447465890767636</v>
+        <v>0.05161940370814359</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2643746398.779319</v>
+        <v>1794002502.730175</v>
       </c>
       <c r="F41" t="n">
-        <v>0.164816132367464</v>
+        <v>0.1220280538817416</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0320400235240032</v>
+        <v>0.04621963423446702</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3014112800.306249</v>
+        <v>2664456359.171802</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09749378337720331</v>
+        <v>0.09033907012942796</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03157014851993022</v>
+        <v>0.04521914283582663</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>150</v>
+      </c>
+      <c r="J42" t="n">
+        <v>343</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2303253139.76986</v>
+        <v>3031046908.448125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1678938138408186</v>
+        <v>0.1622140290957191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0227335369682359</v>
+        <v>0.02406393798878242</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2233467097.153805</v>
+        <v>1700128078.244366</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07816384046609363</v>
+        <v>0.0766360502766428</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03032336099915649</v>
+        <v>0.02816427705997047</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2491883242.631747</v>
+        <v>1672507038.157964</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1919781968083162</v>
+        <v>0.1322273958558795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04520404205926938</v>
+        <v>0.05584566533610826</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4343023475.003086</v>
+        <v>5131547100.811557</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1643490516346962</v>
+        <v>0.1599777691123009</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04628104088387267</v>
+        <v>0.04625826661021525</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>208</v>
+      </c>
+      <c r="J46" t="n">
+        <v>346</v>
+      </c>
+      <c r="K46" t="n">
+        <v>66.27477183901031</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3241822149.833572</v>
+        <v>3699636238.650336</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1228978352363961</v>
+        <v>0.1376249728153779</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05084091854888375</v>
+        <v>0.04453217663215388</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>154</v>
+      </c>
+      <c r="J47" t="n">
+        <v>346</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4227069576.973713</v>
+        <v>4331873252.141752</v>
       </c>
       <c r="F48" t="n">
-        <v>0.110343274217059</v>
+        <v>0.06762341021041152</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03563958045632051</v>
+        <v>0.03155731055237287</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>172</v>
+      </c>
+      <c r="J48" t="n">
+        <v>346</v>
+      </c>
+      <c r="K48" t="n">
+        <v>72.613995591098</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1499331146.742865</v>
+        <v>1297087621.917469</v>
       </c>
       <c r="F49" t="n">
-        <v>0.13841474859974</v>
+        <v>0.1817693406289519</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03708929734952959</v>
+        <v>0.02996280505259475</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3185160749.551045</v>
+        <v>3310497372.33801</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1583833963383532</v>
+        <v>0.1639741334553511</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04872631562257217</v>
+        <v>0.0504100233353976</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>114</v>
+      </c>
+      <c r="J50" t="n">
+        <v>344</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1002105775.420766</v>
+        <v>957273183.9909288</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1402688010948991</v>
+        <v>0.1520334257485835</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04770854874490948</v>
+        <v>0.04448438812010627</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3630062269.414709</v>
+        <v>3945940760.804725</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09465789990170766</v>
+        <v>0.1308991173912424</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05079489733644976</v>
+        <v>0.05971250414557108</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>207</v>
+      </c>
+      <c r="J52" t="n">
+        <v>345</v>
+      </c>
+      <c r="K52" t="n">
+        <v>63.03561622532948</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3503452705.445155</v>
+        <v>3257198724.312416</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1391186814550795</v>
+        <v>0.1468311999059163</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03048797387085736</v>
+        <v>0.02328536650341563</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="n">
+        <v>64.65581101492076</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4742761532.080518</v>
+        <v>4765689480.310105</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1547387507808063</v>
+        <v>0.1215415725469906</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05021472392784693</v>
+        <v>0.04521470951324084</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>181</v>
+      </c>
+      <c r="J54" t="n">
+        <v>346</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3281563797.561616</v>
+        <v>3092275123.341255</v>
       </c>
       <c r="F55" t="n">
-        <v>0.143829578395078</v>
+        <v>0.1534853651031248</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02328670741132024</v>
+        <v>0.03047560652691395</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>166</v>
+      </c>
+      <c r="J55" t="n">
+        <v>345</v>
+      </c>
+      <c r="K55" t="n">
+        <v>47.78339071865118</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1609403874.289186</v>
+        <v>1674966129.413339</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1429552954624596</v>
+        <v>0.1477045669724483</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04483464914781535</v>
+        <v>0.04295224019252834</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2987064463.480096</v>
+        <v>3067840277.069761</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1693053961549321</v>
+        <v>0.1413632409450928</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01965390255521514</v>
+        <v>0.02272173340692506</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>142</v>
+      </c>
+      <c r="J57" t="n">
+        <v>345</v>
+      </c>
+      <c r="K57" t="n">
+        <v>50.95701270567176</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1690867842.546133</v>
+        <v>1244738481.148984</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1484186443922208</v>
+        <v>0.1292606765807482</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03552479120090626</v>
+        <v>0.03026998870927552</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3382490158.148757</v>
+        <v>3946516599.325653</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1236531758385087</v>
+        <v>0.1223756100215535</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03477913582185124</v>
+        <v>0.0422306283220576</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>167</v>
+      </c>
+      <c r="J59" t="n">
+        <v>345</v>
+      </c>
+      <c r="K59" t="n">
+        <v>65.15167320198752</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3271340124.091759</v>
+        <v>2464965496.8121</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1604129553192961</v>
+        <v>0.1864887896315446</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02716415095644233</v>
+        <v>0.02995599231718385</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>344</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2671014777.275777</v>
+        <v>3302190552.231392</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1573348287140278</v>
+        <v>0.1278704153462379</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02253398057824517</v>
+        <v>0.03291499780200387</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1735621863.321153</v>
+        <v>1404699687.889385</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1523725034766606</v>
+        <v>0.1468851062189279</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04722495697443897</v>
+        <v>0.03389423448115631</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5372114803.647658</v>
+        <v>3832510751.504069</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07322459286092874</v>
+        <v>0.07336804344967744</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04292908630154031</v>
+        <v>0.04042255598026791</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>170</v>
+      </c>
+      <c r="J63" t="n">
+        <v>345</v>
+      </c>
+      <c r="K63" t="n">
+        <v>63.34731449012941</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5462838929.874201</v>
+        <v>4614189046.699205</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1510019155442263</v>
+        <v>0.1169155627561878</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02907947131224247</v>
+        <v>0.0312724982482759</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>171</v>
+      </c>
+      <c r="J64" t="n">
+        <v>346</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4286945561.312037</v>
+        <v>5078221526.416203</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1402023806276885</v>
+        <v>0.1138579063638112</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03019792291899451</v>
+        <v>0.02212335121721344</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>267</v>
+      </c>
+      <c r="J65" t="n">
+        <v>346</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5101392564.861717</v>
+        <v>3684983733.552332</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10785555749333</v>
+        <v>0.114118918783185</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03383942616761249</v>
+        <v>0.03700001072632228</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>171</v>
+      </c>
+      <c r="J66" t="n">
+        <v>345</v>
+      </c>
+      <c r="K66" t="n">
+        <v>61.31728734628969</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2596035983.790639</v>
+        <v>2790850011.95256</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08138046183745778</v>
+        <v>0.09515213089282622</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04394275332732701</v>
+        <v>0.04061334501006295</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4040504277.18308</v>
+        <v>4626929365.682427</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1216728761388735</v>
+        <v>0.1515965450410339</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03279446837004981</v>
+        <v>0.04342898992689603</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>188</v>
+      </c>
+      <c r="J68" t="n">
+        <v>346</v>
+      </c>
+      <c r="K68" t="n">
+        <v>66.73770262663902</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1513117646.577086</v>
+        <v>2227362402.898834</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1702722683135133</v>
+        <v>0.1281123766416144</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05621894348036009</v>
+        <v>0.03893100858248284</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3602554777.32865</v>
+        <v>2787249221.618047</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09000417642949923</v>
+        <v>0.06709473416205795</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04231890578523063</v>
+        <v>0.04473645103954028</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3658926633.496316</v>
+        <v>4812527778.201701</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1565543226939013</v>
+        <v>0.1460668001139758</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02397098518554109</v>
+        <v>0.02778344724555433</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>253</v>
+      </c>
+      <c r="J71" t="n">
+        <v>346</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1863817372.487508</v>
+        <v>1472323112.397699</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07596250105663722</v>
+        <v>0.09150811094726342</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03546848316501912</v>
+        <v>0.05176804826875873</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3249856977.766484</v>
+        <v>3444822118.133651</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07746003376830767</v>
+        <v>0.09900099783643701</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03613525988473396</v>
+        <v>0.05057869976091345</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3987685975.116417</v>
+        <v>2893158980.800748</v>
       </c>
       <c r="F74" t="n">
-        <v>0.121640575511397</v>
+        <v>0.1588064948909284</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03472731094867304</v>
+        <v>0.02781016650068958</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>94</v>
+      </c>
+      <c r="J74" t="n">
+        <v>344</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2219640469.222864</v>
+        <v>2433929522.692049</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1674193492133915</v>
+        <v>0.1055656722489948</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03625775181946975</v>
+        <v>0.02341413101389451</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4022281662.786173</v>
+        <v>3345157967.343538</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07909618736971398</v>
+        <v>0.1202043564954306</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02671348559565407</v>
+        <v>0.03058789620940341</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>163</v>
+      </c>
+      <c r="J76" t="n">
+        <v>346</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2022371832.474323</v>
+        <v>1399284573.07441</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1849562840175772</v>
+        <v>0.1247983248193688</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02206418304495819</v>
+        <v>0.02227969357485918</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3824011193.748581</v>
+        <v>3698372947.658479</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08273281165901174</v>
+        <v>0.1355849788818978</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04972235954968553</v>
+        <v>0.04338136609650727</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>172</v>
+      </c>
+      <c r="J78" t="n">
+        <v>346</v>
+      </c>
+      <c r="K78" t="n">
+        <v>66.48265675337484</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1314890809.38955</v>
+        <v>1451971803.847889</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115097156865938</v>
+        <v>0.1715711010020652</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0245060273578797</v>
+        <v>0.03673746573158377</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4418297510.196931</v>
+        <v>3880203681.400729</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09016416227018376</v>
+        <v>0.0820588175975463</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02693249857595916</v>
+        <v>0.03866053353940556</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>169</v>
+      </c>
+      <c r="J80" t="n">
+        <v>346</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4928636602.103289</v>
+        <v>4063118091.268903</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09558236922633415</v>
+        <v>0.08851969744669157</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0302737961760217</v>
+        <v>0.02366631347735336</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>160</v>
+      </c>
+      <c r="J81" t="n">
+        <v>345</v>
+      </c>
+      <c r="K81" t="n">
+        <v>60.27745514943535</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5595816347.53264</v>
+        <v>5485343138.824885</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1591733353511257</v>
+        <v>0.2034492385495699</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02394873423823744</v>
+        <v>0.02711171560301375</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>246</v>
+      </c>
+      <c r="J82" t="n">
+        <v>346</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2028835699.029163</v>
+        <v>1517828255.699413</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1572483856743949</v>
+        <v>0.1515925650462539</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0344653476336156</v>
+        <v>0.03910085312698607</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2228886695.083042</v>
+        <v>2530969623.344372</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1132089527669665</v>
+        <v>0.09736059220965054</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03702853092290868</v>
+        <v>0.04719302690420374</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2226322995.779906</v>
+        <v>2320310817.736548</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1153989025529522</v>
+        <v>0.1767992860832947</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04737372665541099</v>
+        <v>0.04271940958964548</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2759777690.856788</v>
+        <v>1920463916.41847</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1170403363931219</v>
+        <v>0.1568940234460404</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0214408685674559</v>
+        <v>0.02029230782780426</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>987137468.0737936</v>
+        <v>1373758386.533579</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1858195647899518</v>
+        <v>0.1315173623920834</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04095044399945741</v>
+        <v>0.03961202815934047</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3074108367.45771</v>
+        <v>3025281483.804932</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1760609506604056</v>
+        <v>0.1434721622338717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0258051464167905</v>
+        <v>0.02823768228210292</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3578,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2523304803.560546</v>
+        <v>2154012210.061668</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125247713852423</v>
+        <v>0.1541778544232091</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03264380061250169</v>
+        <v>0.02597613399648485</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3613,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1929861934.285463</v>
+        <v>1730949307.888973</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1294042194111354</v>
+        <v>0.1132693494501898</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04423849397071247</v>
+        <v>0.05090087538761633</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1549825192.229885</v>
+        <v>1893983482.331707</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1700730940858589</v>
+        <v>0.1294929602818884</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03769694660554742</v>
+        <v>0.05134520673748652</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2966459245.604888</v>
+        <v>2086100429.747906</v>
       </c>
       <c r="F92" t="n">
-        <v>0.100803286184585</v>
+        <v>0.1081604890522586</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02962844731328797</v>
+        <v>0.04032210381961365</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4198743775.009159</v>
+        <v>3515573173.928367</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1116558752811024</v>
+        <v>0.1227586790018366</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0348376486272285</v>
+        <v>0.05331302373487162</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>160</v>
+      </c>
+      <c r="J93" t="n">
+        <v>345</v>
+      </c>
+      <c r="K93" t="n">
+        <v>60.74739976484289</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2353279558.677174</v>
+        <v>1851047476.211854</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1194106953700448</v>
+        <v>0.1310718873988014</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04333017530978328</v>
+        <v>0.03632477192339499</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2100198429.922732</v>
+        <v>2270189625.212531</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031606196008495</v>
+        <v>0.1334318473242127</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04156126138314246</v>
+        <v>0.04854067651775758</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2392468123.867361</v>
+        <v>2256463787.979318</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1319595740369356</v>
+        <v>0.1144280335218862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03577490827971832</v>
+        <v>0.03633614735409426</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4832702820.283581</v>
+        <v>3293097924.879344</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1510254395771854</v>
+        <v>0.1631143602604213</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02620875596350442</v>
+        <v>0.02545557411613845</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>178</v>
+      </c>
+      <c r="J97" t="n">
+        <v>345</v>
+      </c>
+      <c r="K97" t="n">
+        <v>56.12730675141746</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3895092022.692981</v>
+        <v>3089081353.236414</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08668341415834052</v>
+        <v>0.1276454729370965</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02280718378447305</v>
+        <v>0.03084924659684088</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>87</v>
+      </c>
+      <c r="J98" t="n">
+        <v>345</v>
+      </c>
+      <c r="K98" t="n">
+        <v>53.6655876641511</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3127498132.367767</v>
+        <v>3120713947.781946</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1201130147208297</v>
+        <v>0.1455414224628063</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03205445354235998</v>
+        <v>0.03286223129083186</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3761083866.866515</v>
+        <v>3613781088.540224</v>
       </c>
       <c r="F100" t="n">
-        <v>0.133459572451504</v>
+        <v>0.1604985306916272</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02178888110041592</v>
+        <v>0.021583179242884</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>157</v>
+      </c>
+      <c r="J100" t="n">
+        <v>345</v>
+      </c>
+      <c r="K100" t="n">
+        <v>65.89565804806563</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2810755954.416561</v>
+        <v>3128977492.631181</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1576411651963472</v>
+        <v>0.1551192504117112</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05282546227965283</v>
+        <v>0.04082856332349699</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
